--- a/SERVER/Common/Data/excel/BuffDefine.xlsx
+++ b/SERVER/Common/Data/excel/BuffDefine.xlsx
@@ -67,7 +67,7 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>[{”Name“:“Hp“, "Start":"100"}]</t>
+    <t>[{"Start":{"Hp":"100"}}]</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1043,7 +1043,7 @@
     <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
     <col min="4" max="5" width="12.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.0833333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="64.0833333333333" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1114,7 +1114,6 @@
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>

--- a/SERVER/Common/Data/excel/BuffDefine.xlsx
+++ b/SERVER/Common/Data/excel/BuffDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>[{"Start":{"Hp":"100"}}]</t>
+  </si>
+  <si>
+    <t>晕眩Buff测试</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>[{"Start":{"Stun":true}, "Exit":{"Stun":false}}]</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1043,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1124,6 +1133,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="16" customHeight="1" spans="3:3">
       <c r="C16" s="4"/>
     </row>

--- a/SERVER/Common/Data/excel/BuffDefine.xlsx
+++ b/SERVER/Common/Data/excel/BuffDefine.xlsx
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>

--- a/SERVER/Common/Data/excel/BuffDefine.xlsx
+++ b/SERVER/Common/Data/excel/BuffDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="24930" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>[{"Start":{"Stun":true}, "Exit":{"Stun":false}}]</t>
+  </si>
+  <si>
+    <t>哥布林掉落经验</t>
+  </si>
+  <si>
+    <t>[{"Start":{"Exp":"100"}}]</t>
   </si>
 </sst>
 </file>
@@ -1043,13 +1049,13 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
     <col min="4" max="5" width="12.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="64.0833333333333" style="3" customWidth="1"/>
@@ -1150,6 +1156,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="16" customHeight="1" spans="3:3">
       <c r="C16" s="4"/>
     </row>

--- a/SERVER/Common/Data/excel/BuffDefine.xlsx
+++ b/SERVER/Common/Data/excel/BuffDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610"/>
+    <workbookView windowWidth="20330" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDefine" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>[{"Start":{"Stun":true}, "Exit":{"Stun":false}}]</t>
   </si>
   <si>
-    <t>哥布林掉落经验</t>
-  </si>
-  <si>
-    <t>[{"Start":{"Exp":"100"}}]</t>
+    <t>哥布林任务经验</t>
+  </si>
+  <si>
+    <t>[{"Start":{"Exp":"10000"}}]</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
